--- a/화학실험2/4_캐털레이즈의 반응속도/DATA.xlsx
+++ b/화학실험2/4_캐털레이즈의 반응속도/DATA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeonghyun\GIT\SNU_PJH\화학실험2\4_캐털레이즈의 반응속도\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9B04AA-B6FB-4085-AEA2-C32A18D14AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA14AF20-D068-4454-854B-7403B4BC744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BACDBA1A-60FB-4957-8D18-E5F9241E2924}"/>
+    <workbookView xWindow="9750" yWindow="1420" windowWidth="15030" windowHeight="11260" xr2:uid="{BACDBA1A-60FB-4957-8D18-E5F9241E2924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>6%(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,14 @@
   </si>
   <si>
     <t>1/v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,6 +118,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,7 +1539,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3136503310696256E-2"/>
+          <c:y val="0.19491425921037087"/>
+          <c:w val="0.87119682222152717"/>
+          <c:h val="0.72081152195188836"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2058,7 +2080,7 @@
                   <c:v>1.5202189115232592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1482374555057986</c:v>
+                  <c:v>1.0299721907508497</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0514141520344864</c:v>
@@ -7948,16 +7970,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409122</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360136</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8534,10 +8556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B60FB-FC5F-4E76-9E80-C4398A16F138}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8909,7 +8931,7 @@
         <v>0.65780000000000005</v>
       </c>
       <c r="E24">
-        <v>0.87090000000000001</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="F24">
         <v>0.95109999999999995</v>
@@ -8934,7 +8956,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>1.1482374555057986</v>
+        <v>1.0299721907508497</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
@@ -8943,6 +8965,80 @@
       <c r="P24">
         <f t="shared" si="0"/>
         <v>0.52562417871222078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.8848999999999999E-7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.1025E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.9906999999999998E-6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.0811999999999999E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.6371000000000001E-6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.6254000000000002E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.8923E-6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.8431000000000003E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.8132000000000002E-6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.8547000000000001E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7.6272999999999998E-6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8.4643000000000004E-7</v>
       </c>
     </row>
   </sheetData>
@@ -8950,4 +9046,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3EB43-9FDB-4F8D-8F94-5AFA651A08E5}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>15.85</v>
+      </c>
+      <c r="C2">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="D2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E2">
+        <v>14.53</v>
+      </c>
+      <c r="F2">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="G2">
+        <v>7.9269999999999996</v>
+      </c>
+      <c r="H2">
+        <v>6.6059999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>15.85</v>
+      </c>
+      <c r="C3">
+        <v>21.13</v>
+      </c>
+      <c r="D3">
+        <v>22.46</v>
+      </c>
+      <c r="E3">
+        <v>21.13</v>
+      </c>
+      <c r="F3">
+        <v>22.46</v>
+      </c>
+      <c r="G3">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="H3">
+        <v>7.9269999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="C4">
+        <v>22.46</v>
+      </c>
+      <c r="D4">
+        <v>27.74</v>
+      </c>
+      <c r="E4">
+        <v>27.74</v>
+      </c>
+      <c r="F4">
+        <v>27.74</v>
+      </c>
+      <c r="G4">
+        <v>26.42</v>
+      </c>
+      <c r="H4">
+        <v>9.2479999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C5">
+        <v>25.1</v>
+      </c>
+      <c r="D5">
+        <v>31.7</v>
+      </c>
+      <c r="E5">
+        <v>33.53</v>
+      </c>
+      <c r="F5">
+        <v>31.7</v>
+      </c>
+      <c r="G5">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="H5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C6">
+        <v>26.42</v>
+      </c>
+      <c r="D6">
+        <v>35.67</v>
+      </c>
+      <c r="E6">
+        <v>35.67</v>
+      </c>
+      <c r="F6">
+        <v>36.99</v>
+      </c>
+      <c r="G6">
+        <v>44.92</v>
+      </c>
+      <c r="H6">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C7">
+        <v>30.38</v>
+      </c>
+      <c r="D7">
+        <v>38.31</v>
+      </c>
+      <c r="E7">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="F7">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="H7">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>21.13</v>
+      </c>
+      <c r="C8">
+        <v>34.35</v>
+      </c>
+      <c r="D8">
+        <v>42.27</v>
+      </c>
+      <c r="E8">
+        <v>46.24</v>
+      </c>
+      <c r="H8">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>21.13</v>
+      </c>
+      <c r="C9">
+        <v>35.67</v>
+      </c>
+      <c r="D9">
+        <v>44.92</v>
+      </c>
+      <c r="E9">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>22.46</v>
+      </c>
+      <c r="C10">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="D10">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="D11">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>42.27</v>
+      </c>
+      <c r="D12">
+        <v>52.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>44.92</v>
+      </c>
+      <c r="D13">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>